--- a/biology/Médecine/Incendie_de_l'auberge_de_jeunesse_de_Riga/Incendie_de_l'auberge_de_jeunesse_de_Riga.xlsx
+++ b/biology/Médecine/Incendie_de_l'auberge_de_jeunesse_de_Riga/Incendie_de_l'auberge_de_jeunesse_de_Riga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incendie_de_l%27auberge_de_jeunesse_de_Riga</t>
+          <t>Incendie_de_l'auberge_de_jeunesse_de_Riga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'incendie de l'auberge de jeunesse de Riga est un incendie survenu le 28 avril 2021 dans une auberge de jeunesse de Riga, en Lettonie, lors duquel 8 personnes sont mortes et 9 autres blessées[1].
+L'incendie de l'auberge de jeunesse de Riga est un incendie survenu le 28 avril 2021 dans une auberge de jeunesse de Riga, en Lettonie, lors duquel 8 personnes sont mortes et 9 autres blessées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Incendie_de_l%27auberge_de_jeunesse_de_Riga</t>
+          <t>Incendie_de_l'auberge_de_jeunesse_de_Riga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Incendie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peu après 4 h 30 du matin, l'incendie s'est déclaré à Japanese Style Centrum, une auberge illégale située au sixième étage d'un immeuble dans la capitale lettone Riga. Les pompiers ont été appelés à 4 h 43. L'incendie a tué huit personnes, dont certaines étaient des ressortissants étrangers, et blessé neuf autres personnes[1].
-Les auberges de jeunesse de l'État balte ont été autorisées à fonctionner pendant la pandémie de Covid-19. L'auberge était bondée et certains clients qui s'y sont rendus à la fin de l'année 2020 et au début de l'année 2021 ont déclaré que les conditions à l'intérieur étaient médiocres. En février 2021, les fonctionnaires qui voulaient effectuer une inspection de sécurité incendie se sont vu refuser l'entrée. Le maire de Riga, Mārtiņš Staķis, a déclaré que l'auberge non autorisée serait fermée[1]. Une enquête criminelle sur l'incendie a été ouverte le jour même de l'incendie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu après 4 h 30 du matin, l'incendie s'est déclaré à Japanese Style Centrum, une auberge illégale située au sixième étage d'un immeuble dans la capitale lettone Riga. Les pompiers ont été appelés à 4 h 43. L'incendie a tué huit personnes, dont certaines étaient des ressortissants étrangers, et blessé neuf autres personnes.
+Les auberges de jeunesse de l'État balte ont été autorisées à fonctionner pendant la pandémie de Covid-19. L'auberge était bondée et certains clients qui s'y sont rendus à la fin de l'année 2020 et au début de l'année 2021 ont déclaré que les conditions à l'intérieur étaient médiocres. En février 2021, les fonctionnaires qui voulaient effectuer une inspection de sécurité incendie se sont vu refuser l'entrée. Le maire de Riga, Mārtiņš Staķis, a déclaré que l'auberge non autorisée serait fermée. Une enquête criminelle sur l'incendie a été ouverte le jour même de l'incendie.
 </t>
         </is>
       </c>
